--- a/cont-data.xlsx
+++ b/cont-data.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/051867489d37b9f6/Research project/High flow PACU/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/051867489d37b9f6/Research project/High flow PACU/hfnpsrma/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2C74C19-54F6-49BC-BFE1-0853AC2A5EF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="8_{B2C74C19-54F6-49BC-BFE1-0853AC2A5EF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4AAAF6F5-F0DC-406A-BCE2-BB8181FAB63B}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28920" windowHeight="13500" xr2:uid="{7ABF95BC-DC89-447A-8004-B3F379E6B3AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="55">
   <si>
     <t>author</t>
   </si>
@@ -72,15 +72,6 @@
   </si>
   <si>
     <t>e.sd</t>
-  </si>
-  <si>
-    <t>n.c2</t>
-  </si>
-  <si>
-    <t>c2.outcome</t>
-  </si>
-  <si>
-    <t>c2.sd</t>
   </si>
   <si>
     <t>Parke</t>
@@ -236,12 +227,14 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -629,8 +622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16675DAF-830A-45AA-8FC5-93194D84ED78}">
   <dimension ref="A1:V95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="F99" sqref="F99"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="15"/>
@@ -672,15 +665,9 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
@@ -691,19 +678,19 @@
     </row>
     <row r="2" spans="1:22" ht="15.75">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B2">
         <v>2013</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G2">
         <v>171</v>
@@ -726,19 +713,19 @@
     </row>
     <row r="3" spans="1:22" ht="15.75">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B3">
         <v>2015</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G3">
         <v>416</v>
@@ -761,19 +748,19 @@
     </row>
     <row r="4" spans="1:22" ht="15.75">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B4">
         <v>2016</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G4">
         <v>112</v>
@@ -796,19 +783,19 @@
     </row>
     <row r="5" spans="1:22" ht="15.75">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B5">
         <v>2016</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G5">
         <v>31</v>
@@ -831,19 +818,19 @@
     </row>
     <row r="6" spans="1:22" ht="15.75">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B6">
         <v>2017</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G6">
         <v>54</v>
@@ -866,19 +853,19 @@
     </row>
     <row r="7" spans="1:22" ht="15.75">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B7">
         <v>2017</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G7">
         <v>26</v>
@@ -901,19 +888,19 @@
     </row>
     <row r="8" spans="1:22" ht="15.75">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B8">
         <v>2018</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G8">
         <v>45</v>
@@ -936,19 +923,19 @@
     </row>
     <row r="9" spans="1:22" ht="15.75">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B9">
         <v>2018</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G9">
         <v>50</v>
@@ -971,19 +958,19 @@
     </row>
     <row r="10" spans="1:22" ht="15.75">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B10">
         <v>2019</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G10">
         <v>48</v>
@@ -1006,19 +993,19 @@
     </row>
     <row r="11" spans="1:22" ht="15.75">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B11">
         <v>2019</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G11">
         <v>32</v>
@@ -1041,19 +1028,19 @@
     </row>
     <row r="12" spans="1:22" ht="15.75">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B12">
         <v>2020</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G12">
         <v>76</v>
@@ -1076,19 +1063,19 @@
     </row>
     <row r="13" spans="1:22" ht="15.75">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B13">
         <v>2021</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G13">
         <v>33</v>
@@ -1111,19 +1098,19 @@
     </row>
     <row r="14" spans="1:22" ht="15.75">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B14">
         <v>2021</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G14">
         <v>25</v>
@@ -1146,19 +1133,19 @@
     </row>
     <row r="15" spans="1:22" ht="15.75">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B15">
         <v>2022</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G15">
         <v>40</v>
@@ -1181,19 +1168,19 @@
     </row>
     <row r="16" spans="1:22" ht="15.75">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B16">
         <v>2023</v>
       </c>
       <c r="C16" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G16">
         <v>90</v>
@@ -1216,19 +1203,19 @@
     </row>
     <row r="17" spans="1:12" ht="15.75">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B17">
         <v>2024</v>
       </c>
       <c r="C17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D17" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G17">
         <v>39</v>
@@ -1251,19 +1238,19 @@
     </row>
     <row r="18" spans="1:12" ht="15.75">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B18">
         <v>2024</v>
       </c>
       <c r="C18" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G18">
         <v>30</v>
@@ -1286,19 +1273,19 @@
     </row>
     <row r="19" spans="1:12" ht="15.75">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B19">
         <v>2025</v>
       </c>
       <c r="C19" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D19" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G19">
         <v>58</v>
@@ -1321,19 +1308,19 @@
     </row>
     <row r="20" spans="1:12" ht="15.75">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B20">
         <v>2013</v>
       </c>
       <c r="C20" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D20" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G20">
         <v>171</v>
@@ -1356,19 +1343,19 @@
     </row>
     <row r="21" spans="1:12" ht="15.75">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B21">
         <v>2015</v>
       </c>
       <c r="C21" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D21" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G21">
         <v>416</v>
@@ -1391,19 +1378,19 @@
     </row>
     <row r="22" spans="1:12" ht="15.75">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B22">
         <v>2015</v>
       </c>
       <c r="C22" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D22" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G22">
         <v>74</v>
@@ -1426,19 +1413,19 @@
     </row>
     <row r="23" spans="1:12" ht="15.75">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B23">
         <v>2016</v>
       </c>
       <c r="C23" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D23" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G23">
         <v>112</v>
@@ -1461,19 +1448,19 @@
     </row>
     <row r="24" spans="1:12" ht="15.75">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B24">
         <v>2017</v>
       </c>
       <c r="C24" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D24" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G24">
         <v>54</v>
@@ -1496,19 +1483,19 @@
     </row>
     <row r="25" spans="1:12" ht="15.75">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B25">
         <v>2017</v>
       </c>
       <c r="C25" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D25" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G25">
         <v>26</v>
@@ -1531,19 +1518,19 @@
     </row>
     <row r="26" spans="1:12" ht="15.75">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B26">
         <v>2018</v>
       </c>
       <c r="C26" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D26" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G26">
         <v>45</v>
@@ -1566,19 +1553,19 @@
     </row>
     <row r="27" spans="1:12" ht="15.75">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B27">
         <v>2018</v>
       </c>
       <c r="C27" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D27" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G27">
         <v>50</v>
@@ -1601,19 +1588,19 @@
     </row>
     <row r="28" spans="1:12" ht="15.75">
       <c r="A28" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B28">
         <v>2020</v>
       </c>
       <c r="C28" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D28" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G28">
         <v>43</v>
@@ -1636,19 +1623,19 @@
     </row>
     <row r="29" spans="1:12" ht="15.75">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B29">
         <v>2020</v>
       </c>
       <c r="C29" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D29" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G29">
         <v>76</v>
@@ -1671,19 +1658,19 @@
     </row>
     <row r="30" spans="1:12" ht="15.75">
       <c r="A30" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B30">
         <v>2021</v>
       </c>
       <c r="C30" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D30" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G30">
         <v>30</v>
@@ -1706,19 +1693,19 @@
     </row>
     <row r="31" spans="1:12" ht="15.75">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B31">
         <v>2021</v>
       </c>
       <c r="C31" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D31" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G31">
         <v>33</v>
@@ -1741,19 +1728,19 @@
     </row>
     <row r="32" spans="1:12" ht="15.75">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B32">
         <v>2021</v>
       </c>
       <c r="C32" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D32" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G32">
         <v>25</v>
@@ -1776,19 +1763,19 @@
     </row>
     <row r="33" spans="1:15" ht="15.75">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B33">
         <v>2022</v>
       </c>
       <c r="C33" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D33" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G33">
         <v>40</v>
@@ -1811,19 +1798,19 @@
     </row>
     <row r="34" spans="1:15" ht="15.75">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B34">
         <v>2023</v>
       </c>
       <c r="C34" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D34" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G34">
         <v>90</v>
@@ -1846,19 +1833,19 @@
     </row>
     <row r="35" spans="1:15" ht="15.75">
       <c r="A35" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B35">
         <v>2013</v>
       </c>
       <c r="C35" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D35" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G35">
         <v>171</v>
@@ -1881,19 +1868,19 @@
     </row>
     <row r="36" spans="1:15" ht="15.75">
       <c r="A36" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B36">
         <v>2016</v>
       </c>
       <c r="C36" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D36" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G36">
         <v>112</v>
@@ -1916,19 +1903,19 @@
     </row>
     <row r="37" spans="1:15" ht="15.75">
       <c r="A37" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B37">
         <v>2018</v>
       </c>
       <c r="C37" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D37" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G37">
         <v>50</v>
@@ -1951,19 +1938,19 @@
     </row>
     <row r="38" spans="1:15" ht="15.75">
       <c r="A38" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B38">
         <v>2022</v>
       </c>
       <c r="C38" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D38" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G38">
         <v>10</v>
@@ -1986,19 +1973,19 @@
     </row>
     <row r="39" spans="1:15" ht="15.75">
       <c r="A39" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B39">
         <v>2023</v>
       </c>
       <c r="C39" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D39" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G39">
         <v>41</v>
@@ -2021,22 +2008,19 @@
     </row>
     <row r="40" spans="1:15" ht="15.75">
       <c r="A40" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B40">
         <v>2024</v>
       </c>
       <c r="C40" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D40" t="s">
-        <v>17</v>
-      </c>
-      <c r="E40" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G40" s="4">
         <v>30</v>
@@ -2045,42 +2029,36 @@
         <v>30</v>
       </c>
       <c r="I40" s="4">
-        <v>10</v>
+        <v>5.83</v>
       </c>
       <c r="J40" s="4">
         <v>4.17</v>
       </c>
       <c r="K40" s="4">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="L40" s="4">
         <v>1.85</v>
       </c>
-      <c r="M40" s="4">
-        <v>30</v>
-      </c>
-      <c r="N40" s="4">
-        <v>5.83</v>
-      </c>
-      <c r="O40" s="4">
-        <v>1.85</v>
-      </c>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+      <c r="O40" s="4"/>
     </row>
     <row r="41" spans="1:15" ht="15.75">
       <c r="A41" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B41">
         <v>2025</v>
       </c>
       <c r="C41" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D41" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G41">
         <v>99</v>
@@ -2103,19 +2081,19 @@
     </row>
     <row r="42" spans="1:15" ht="15.75">
       <c r="A42" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B42">
         <v>2015</v>
       </c>
       <c r="C42" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D42" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G42">
         <v>416</v>
@@ -2138,19 +2116,19 @@
     </row>
     <row r="43" spans="1:15" ht="15.75">
       <c r="A43" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B43">
         <v>2019</v>
       </c>
       <c r="C43" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D43" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G43">
         <v>32</v>
@@ -2173,19 +2151,19 @@
     </row>
     <row r="44" spans="1:15" ht="15.75">
       <c r="A44" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B44">
         <v>2020</v>
       </c>
       <c r="C44" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D44" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G44">
         <v>43</v>
@@ -2208,19 +2186,19 @@
     </row>
     <row r="45" spans="1:15" ht="15.75">
       <c r="A45" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B45">
         <v>2022</v>
       </c>
       <c r="C45" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D45" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G45">
         <v>35</v>
@@ -2243,19 +2221,19 @@
     </row>
     <row r="46" spans="1:15" ht="15.75">
       <c r="A46" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B46">
         <v>2022</v>
       </c>
       <c r="C46" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D46" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G46">
         <v>40</v>
@@ -2278,19 +2256,19 @@
     </row>
     <row r="47" spans="1:15" ht="15.75">
       <c r="A47" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B47">
         <v>2023</v>
       </c>
       <c r="C47" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D47" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G47">
         <v>41</v>
@@ -2313,22 +2291,19 @@
     </row>
     <row r="48" spans="1:15" ht="15.75">
       <c r="A48" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B48">
         <v>2024</v>
       </c>
       <c r="C48" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E48" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G48" s="4">
         <v>30</v>
@@ -2337,42 +2312,36 @@
         <v>30</v>
       </c>
       <c r="I48" s="4">
-        <v>357.6</v>
+        <v>355.47</v>
       </c>
       <c r="J48" s="4">
         <v>358.08</v>
       </c>
       <c r="K48" s="4">
-        <v>220.67</v>
+        <v>101.9</v>
       </c>
       <c r="L48" s="4">
         <v>117.95</v>
       </c>
-      <c r="M48" s="4">
-        <v>30</v>
-      </c>
-      <c r="N48" s="4">
-        <v>355.47</v>
-      </c>
-      <c r="O48" s="4">
-        <v>101.9</v>
-      </c>
+      <c r="M48" s="4"/>
+      <c r="N48" s="4"/>
+      <c r="O48" s="4"/>
     </row>
     <row r="49" spans="1:15" ht="15.75">
       <c r="A49" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B49">
         <v>2015</v>
       </c>
       <c r="C49" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D49" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G49">
         <v>416</v>
@@ -2395,19 +2364,19 @@
     </row>
     <row r="50" spans="1:15" ht="15.75">
       <c r="A50" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B50">
         <v>2016</v>
       </c>
       <c r="C50" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D50" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G50">
         <v>112</v>
@@ -2430,19 +2399,19 @@
     </row>
     <row r="51" spans="1:15" ht="15.75">
       <c r="A51" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B51">
         <v>2019</v>
       </c>
       <c r="C51" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D51" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G51">
         <v>32</v>
@@ -2465,19 +2434,19 @@
     </row>
     <row r="52" spans="1:15" ht="15.75">
       <c r="A52" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B52">
         <v>2021</v>
       </c>
       <c r="C52" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D52" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G52">
         <v>30</v>
@@ -2500,19 +2469,19 @@
     </row>
     <row r="53" spans="1:15" ht="15.75">
       <c r="A53" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B53">
         <v>2022</v>
       </c>
       <c r="C53" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D53" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G53">
         <v>30</v>
@@ -2535,19 +2504,19 @@
     </row>
     <row r="54" spans="1:15" ht="15.75">
       <c r="A54" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B54">
         <v>2022</v>
       </c>
       <c r="C54" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D54" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G54">
         <v>35</v>
@@ -2570,19 +2539,19 @@
     </row>
     <row r="55" spans="1:15" ht="15.75">
       <c r="A55" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B55">
         <v>2022</v>
       </c>
       <c r="C55" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D55" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G55">
         <v>40</v>
@@ -2605,19 +2574,19 @@
     </row>
     <row r="56" spans="1:15" ht="15.75">
       <c r="A56" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B56">
         <v>2022</v>
       </c>
       <c r="C56" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D56" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G56">
         <v>15</v>
@@ -2640,19 +2609,19 @@
     </row>
     <row r="57" spans="1:15" ht="15.75">
       <c r="A57" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B57">
         <v>2023</v>
       </c>
       <c r="C57" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D57" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G57">
         <v>41</v>
@@ -2675,22 +2644,19 @@
     </row>
     <row r="58" spans="1:15" ht="15.75">
       <c r="A58" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B58">
         <v>2024</v>
       </c>
       <c r="C58" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D58" t="s">
-        <v>17</v>
-      </c>
-      <c r="E58" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G58" s="5">
         <v>30</v>
@@ -2699,42 +2665,36 @@
         <v>30</v>
       </c>
       <c r="I58" s="5">
-        <v>37.19</v>
+        <v>35.950000000000003</v>
       </c>
       <c r="J58" s="5">
         <v>36.83</v>
       </c>
       <c r="K58" s="5">
-        <v>5.19</v>
+        <v>3.87</v>
       </c>
       <c r="L58" s="5">
         <v>3.78</v>
       </c>
-      <c r="M58" s="5">
-        <v>30</v>
-      </c>
-      <c r="N58" s="5">
-        <v>35.950000000000003</v>
-      </c>
-      <c r="O58" s="5">
-        <v>3.87</v>
-      </c>
+      <c r="M58" s="5"/>
+      <c r="N58" s="5"/>
+      <c r="O58" s="5"/>
     </row>
     <row r="59" spans="1:15" ht="15.75">
       <c r="A59" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B59">
         <v>2018</v>
       </c>
       <c r="C59" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D59" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G59" s="5">
         <v>50</v>
@@ -2769,19 +2729,19 @@
     </row>
     <row r="61" spans="1:15" ht="15.75">
       <c r="A61" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B61">
         <v>2016</v>
       </c>
       <c r="C61" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D61" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G61">
         <v>112</v>
@@ -2804,19 +2764,19 @@
     </row>
     <row r="62" spans="1:15" ht="15.75">
       <c r="A62" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B62">
         <v>2021</v>
       </c>
       <c r="C62" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D62" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G62">
         <v>30</v>
@@ -2839,19 +2799,19 @@
     </row>
     <row r="63" spans="1:15" ht="15.75">
       <c r="A63" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B63">
         <v>2022</v>
       </c>
       <c r="C63" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D63" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G63">
         <v>30</v>
@@ -2874,19 +2834,19 @@
     </row>
     <row r="64" spans="1:15" ht="15.75">
       <c r="A64" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B64">
         <v>2022</v>
       </c>
       <c r="C64" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D64" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G64">
         <v>35</v>
@@ -2909,19 +2869,19 @@
     </row>
     <row r="65" spans="1:15" ht="15.75">
       <c r="A65" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B65">
         <v>2022</v>
       </c>
       <c r="C65" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D65" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G65">
         <v>40</v>
@@ -2944,19 +2904,19 @@
     </row>
     <row r="66" spans="1:15" ht="15.75">
       <c r="A66" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B66">
         <v>2022</v>
       </c>
       <c r="C66" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D66" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G66">
         <v>15</v>
@@ -2979,19 +2939,19 @@
     </row>
     <row r="67" spans="1:15" ht="15.75">
       <c r="A67" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B67">
         <v>2023</v>
       </c>
       <c r="C67" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D67" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G67">
         <v>41</v>
@@ -3014,22 +2974,19 @@
     </row>
     <row r="68" spans="1:15" ht="15.75">
       <c r="A68" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B68">
         <v>2024</v>
       </c>
       <c r="C68" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D68" t="s">
-        <v>17</v>
-      </c>
-      <c r="E68" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G68" s="5">
         <v>30</v>
@@ -3038,42 +2995,36 @@
         <v>30</v>
       </c>
       <c r="I68" s="5">
-        <v>151.26</v>
+        <v>158.47999999999999</v>
       </c>
       <c r="J68" s="5">
         <v>159.84</v>
       </c>
       <c r="K68" s="5">
-        <v>44.76</v>
+        <v>50.96</v>
       </c>
       <c r="L68" s="5">
         <v>66.83</v>
       </c>
-      <c r="M68" s="5">
-        <v>30</v>
-      </c>
-      <c r="N68" s="5">
-        <v>158.47999999999999</v>
-      </c>
-      <c r="O68" s="5">
-        <v>50.96</v>
-      </c>
+      <c r="M68" s="5"/>
+      <c r="N68" s="5"/>
+      <c r="O68" s="5"/>
     </row>
     <row r="69" spans="1:15" ht="15.75">
       <c r="A69" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B69">
         <v>2018</v>
       </c>
       <c r="C69" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D69" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G69">
         <v>50</v>
@@ -3105,19 +3056,19 @@
     </row>
     <row r="71" spans="1:15" ht="15.75">
       <c r="A71" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B71">
         <v>2015</v>
       </c>
       <c r="C71" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D71" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G71">
         <v>416</v>
@@ -3140,19 +3091,19 @@
     </row>
     <row r="72" spans="1:15" ht="15.75">
       <c r="A72" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B72">
         <v>2016</v>
       </c>
       <c r="C72" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D72" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G72">
         <v>112</v>
@@ -3175,19 +3126,19 @@
     </row>
     <row r="73" spans="1:15" ht="15.75">
       <c r="A73" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B73">
         <v>2021</v>
       </c>
       <c r="C73" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D73" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G73">
         <v>30</v>
@@ -3210,19 +3161,19 @@
     </row>
     <row r="74" spans="1:15" ht="15.75">
       <c r="A74" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B74">
         <v>2022</v>
       </c>
       <c r="C74" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D74" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G74">
         <v>30</v>
@@ -3245,19 +3196,19 @@
     </row>
     <row r="75" spans="1:15" ht="15.75">
       <c r="A75" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B75">
         <v>2023</v>
       </c>
       <c r="C75" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D75" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G75">
         <v>41</v>
@@ -3280,19 +3231,19 @@
     </row>
     <row r="76" spans="1:15" ht="15.75">
       <c r="A76" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B76">
         <v>2015</v>
       </c>
       <c r="C76" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D76" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G76">
         <v>416</v>
@@ -3315,19 +3266,19 @@
     </row>
     <row r="77" spans="1:15" ht="15.75">
       <c r="A77" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B77">
         <v>2018</v>
       </c>
       <c r="C77" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D77" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G77">
         <v>50</v>
@@ -3350,19 +3301,19 @@
     </row>
     <row r="78" spans="1:15" ht="15.75">
       <c r="A78" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B78">
         <v>2020</v>
       </c>
       <c r="C78" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D78" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G78">
         <v>43</v>
@@ -3385,19 +3336,19 @@
     </row>
     <row r="79" spans="1:15" ht="15.75">
       <c r="A79" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B79">
         <v>2022</v>
       </c>
       <c r="C79" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D79" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G79">
         <v>35</v>
@@ -3420,19 +3371,19 @@
     </row>
     <row r="80" spans="1:15" ht="15.75">
       <c r="A80" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B80">
         <v>2023</v>
       </c>
       <c r="C80" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D80" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G80">
         <v>41</v>
@@ -3455,19 +3406,19 @@
     </row>
     <row r="81" spans="1:15" ht="15.75">
       <c r="A81" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B81">
         <v>2018</v>
       </c>
       <c r="C81" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D81" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F81" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G81">
         <v>50</v>
@@ -3490,19 +3441,19 @@
     </row>
     <row r="82" spans="1:15" ht="15.75">
       <c r="A82" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B82">
         <v>2019</v>
       </c>
       <c r="C82" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D82" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F82" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G82">
         <v>32</v>
@@ -3525,19 +3476,19 @@
     </row>
     <row r="83" spans="1:15" ht="15.75">
       <c r="A83" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B83">
         <v>2021</v>
       </c>
       <c r="C83" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D83" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G83">
         <v>30</v>
@@ -3560,19 +3511,19 @@
     </row>
     <row r="84" spans="1:15" ht="15.75">
       <c r="A84" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B84">
         <v>2022</v>
       </c>
       <c r="C84" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D84" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F84" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G84">
         <v>30</v>
@@ -3595,22 +3546,19 @@
     </row>
     <row r="85" spans="1:15" ht="15.75">
       <c r="A85" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B85">
         <v>2024</v>
       </c>
       <c r="C85" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D85" t="s">
-        <v>17</v>
-      </c>
-      <c r="E85" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G85" s="5">
         <v>30</v>
@@ -3619,42 +3567,35 @@
         <v>30</v>
       </c>
       <c r="I85" s="5">
-        <v>98.77</v>
+        <v>98.7</v>
       </c>
       <c r="J85" s="5">
         <v>98.77</v>
       </c>
       <c r="K85" s="5">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="L85" s="5">
         <v>1.74</v>
       </c>
-      <c r="M85" s="5">
-        <v>30</v>
-      </c>
-      <c r="N85" s="5">
-        <v>98.7</v>
-      </c>
-      <c r="O85" s="5">
-        <v>1.9</v>
-      </c>
+      <c r="M85" s="5"/>
+      <c r="O85" s="5"/>
     </row>
     <row r="86" spans="1:15" ht="15.75">
       <c r="A86" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B86">
         <v>2016</v>
       </c>
       <c r="C86" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D86" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G86">
         <v>112</v>
@@ -3677,19 +3618,19 @@
     </row>
     <row r="87" spans="1:15" ht="15.75">
       <c r="A87" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B87">
         <v>2018</v>
       </c>
       <c r="C87" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D87" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G87">
         <v>50</v>
@@ -3712,19 +3653,19 @@
     </row>
     <row r="88" spans="1:15" ht="15.75">
       <c r="A88" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B88">
         <v>2020</v>
       </c>
       <c r="C88" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D88" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G88">
         <v>43</v>
@@ -3747,19 +3688,19 @@
     </row>
     <row r="89" spans="1:15" ht="15.75">
       <c r="A89" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B89">
         <v>2022</v>
       </c>
       <c r="C89" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D89" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G89">
         <v>30</v>
@@ -3782,19 +3723,19 @@
     </row>
     <row r="90" spans="1:15" ht="15.75">
       <c r="A90" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B90">
         <v>2022</v>
       </c>
       <c r="C90" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D90" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G90">
         <v>15</v>
@@ -3817,19 +3758,19 @@
     </row>
     <row r="91" spans="1:15" ht="15.75">
       <c r="A91" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B91">
         <v>2024</v>
       </c>
       <c r="C91" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D91" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G91">
         <v>30</v>
@@ -3852,19 +3793,19 @@
     </row>
     <row r="92" spans="1:15" ht="15.75">
       <c r="A92" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B92">
         <v>2016</v>
       </c>
       <c r="C92" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D92" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G92">
         <v>112</v>
@@ -3887,19 +3828,19 @@
     </row>
     <row r="93" spans="1:15" ht="15.75">
       <c r="A93" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B93">
         <v>2018</v>
       </c>
       <c r="C93" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D93" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G93">
         <v>50</v>
@@ -3922,19 +3863,19 @@
     </row>
     <row r="94" spans="1:15" ht="15.75">
       <c r="A94" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B94">
         <v>2022</v>
       </c>
       <c r="C94" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D94" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G94">
         <v>30</v>
@@ -3957,19 +3898,19 @@
     </row>
     <row r="95" spans="1:15" ht="15.75">
       <c r="A95" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B95">
         <v>2024</v>
       </c>
       <c r="C95" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D95" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G95">
         <v>30</v>
